--- a/Certification CDA/Recap_Compétences.xlsx
+++ b/Certification CDA/Recap_Compétences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Desktop\EPSI\Certif_CDA_Contenue\Certification CDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSI\Certif_CDA_Contenue\Certification CDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC8A7C9-560D-4F88-86CC-808A4FBC0A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D810E83-2FD7-412F-9D3E-7B8948847EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAD9A9D6-F1C0-4B06-9435-EEE062357DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{AAD9A9D6-F1C0-4B06-9435-EEE062357DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Compétences professionnelles</t>
   </si>
@@ -193,13 +193,37 @@
   </si>
   <si>
     <t>Ajouter à ça la notion d'API avec les MSPR</t>
+  </si>
+  <si>
+    <t>IMPORTANT</t>
+  </si>
+  <si>
+    <t>Recap des projets</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Storeswap</t>
+  </si>
+  <si>
+    <t>Tentationvoyage</t>
+  </si>
+  <si>
+    <t>MSPR</t>
+  </si>
+  <si>
+    <t>Prisearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +239,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +286,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -368,69 +428,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,31 +545,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Entrée" xfId="2" builtinId="20"/>
+    <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -488,56 +581,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -858,388 +902,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3489122-4D15-4F26-9748-79BCEDC1CFA9}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="J1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6">
+      <c r="J2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6">
+      <c r="J3" s="28"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="6">
+      <c r="J5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+    </row>
+    <row r="6" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+    </row>
+    <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="16">
+      <c r="J7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="16">
+      <c r="H8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="H9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6">
+      <c r="H10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6">
+      <c r="H11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="5">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6">
+      <c r="H12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6">
+      <c r="H13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="5">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6">
+      <c r="J14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="5">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="6">
+      <c r="J15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="1:14" ht="217.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="J16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1251,18 +1382,18 @@
     <mergeCell ref="B10:B16"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:H2">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$H2="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$H2="A finir"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H3="A finir"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$H3="Oui"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Certification CDA/Recap_Compétences.xlsx
+++ b/Certification CDA/Recap_Compétences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSI\Certif_CDA_Contenue\Certification CDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D810E83-2FD7-412F-9D3E-7B8948847EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2435E5-7B7C-4745-8AA8-0D350C9EE6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{AAD9A9D6-F1C0-4B06-9435-EEE062357DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Compétences professionnelles</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Prisearch</t>
+  </si>
+  <si>
+    <t>Airsens</t>
   </si>
 </sst>
 </file>
@@ -509,42 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -555,6 +522,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -563,7 +566,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -575,20 +578,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -947,24 +936,24 @@
       <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5">
@@ -985,18 +974,18 @@
       <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30" t="s">
+      <c r="J2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5">
         <v>2</v>
       </c>
@@ -1015,18 +1004,18 @@
       <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30" t="s">
+      <c r="J3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5">
         <v>3</v>
       </c>
@@ -1043,18 +1032,18 @@
       <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30" t="s">
+      <c r="J4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5">
         <v>4</v>
       </c>
@@ -1073,14 +1062,16 @@
       <c r="H5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="J5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5">
         <v>5</v>
       </c>
@@ -1099,16 +1090,16 @@
       <c r="H6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="J6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="26">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="10">
@@ -1129,14 +1120,14 @@
       <c r="H7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="J7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="10">
         <v>7</v>
       </c>
@@ -1155,14 +1146,14 @@
       <c r="H8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="J8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="10">
         <v>8</v>
       </c>
@@ -1181,16 +1172,16 @@
       <c r="H9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="J9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5">
@@ -1211,14 +1202,14 @@
       <c r="H10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="J10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -1237,14 +1228,14 @@
       <c r="H11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="J11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5">
         <v>11</v>
       </c>
@@ -1263,14 +1254,14 @@
       <c r="H12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="J12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5">
         <v>12</v>
       </c>
@@ -1289,14 +1280,14 @@
       <c r="H13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="J13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5">
         <v>13</v>
       </c>
@@ -1315,14 +1306,14 @@
       <c r="H14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="J14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5">
         <v>14</v>
       </c>
@@ -1341,14 +1332,14 @@
       <c r="H15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="J15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="217.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="5">
         <v>15</v>
       </c>
@@ -1367,10 +1358,10 @@
       <c r="H16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="J16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1381,20 +1372,12 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B16"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:H2">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$H2="Oui"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C2:H16">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H2="A finir"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H16">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$H3="A finir"</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$H3="Oui"</formula>
+      <formula>$H2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Certification CDA/Recap_Compétences.xlsx
+++ b/Certification CDA/Recap_Compétences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSI\Certif_CDA_Contenue\Certification CDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Desktop\EPSI\Certif_CDA_Contenue\Certification CDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2435E5-7B7C-4745-8AA8-0D350C9EE6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D20D63E-691D-4B18-B0D1-CF8C35499B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{AAD9A9D6-F1C0-4B06-9435-EEE062357DBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAD9A9D6-F1C0-4B06-9435-EEE062357DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Compétences professionnelles</t>
   </si>
@@ -220,6 +220,13 @@
   </si>
   <si>
     <t>Airsens</t>
+  </si>
+  <si>
+    <t>Rédiger une documentation
+ pour chaque applications</t>
+  </si>
+  <si>
+    <t>VITAM</t>
   </si>
 </sst>
 </file>
@@ -893,25 +900,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3489122-4D15-4F26-9748-79BCEDC1CFA9}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -949,7 +957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -983,7 +991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
       <c r="B3" s="24"/>
       <c r="C3" s="5">
@@ -1004,6 +1012,9 @@
       <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J3" s="16"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
@@ -1013,7 +1024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="24"/>
       <c r="C4" s="5">
@@ -1041,7 +1052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="24"/>
       <c r="C5" s="5">
@@ -1064,12 +1075,14 @@
       </c>
       <c r="J5" s="16"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="M5" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="N5" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" s="5">
@@ -1095,7 +1108,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>2</v>
       </c>
@@ -1125,7 +1138,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27"/>
       <c r="B8" s="30"/>
       <c r="C8" s="10">
@@ -1151,7 +1164,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
       <c r="B9" s="31"/>
       <c r="C9" s="10">
@@ -1177,7 +1190,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>3</v>
       </c>
@@ -1207,7 +1220,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
       <c r="B11" s="24"/>
       <c r="C11" s="5">
@@ -1233,7 +1246,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27"/>
       <c r="B12" s="24"/>
       <c r="C12" s="5">
@@ -1259,7 +1272,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
       <c r="B13" s="24"/>
       <c r="C13" s="5">
@@ -1285,7 +1298,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27"/>
       <c r="B14" s="24"/>
       <c r="C14" s="5">
@@ -1311,7 +1324,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="24"/>
       <c r="C15" s="5">
@@ -1337,7 +1350,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="217.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="217.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
       <c r="B16" s="25"/>
       <c r="C16" s="5">

--- a/Certification CDA/Recap_Compétences.xlsx
+++ b/Certification CDA/Recap_Compétences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Desktop\EPSI\Certif_CDA_Contenue\Certification CDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D20D63E-691D-4B18-B0D1-CF8C35499B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98347B7C-FDCD-49C7-BABB-8202C644BD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAD9A9D6-F1C0-4B06-9435-EEE062357DBD}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Développer des composants d'accès aux données</t>
   </si>
   <si>
-    <t>Développer la partie front-end d'une interface utilisatuer web</t>
-  </si>
-  <si>
     <t>Développer la partie back-end d'une interface utilisateur web</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>VITAM</t>
+  </si>
+  <si>
+    <t>Développer la partie front-end d'une interface utilisateur web</t>
   </si>
 </sst>
 </file>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3489122-4D15-4F26-9748-79BCEDC1CFA9}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -942,22 +942,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -974,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>5</v>
@@ -985,10 +985,10 @@
       <c r="J2" s="16"/>
       <c r="L2" s="17"/>
       <c r="M2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1004,24 +1004,24 @@
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="16"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
@@ -1046,10 +1046,10 @@
       <c r="J4" s="16"/>
       <c r="L4" s="17"/>
       <c r="M4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1059,27 +1059,27 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="16"/>
       <c r="L5" s="17"/>
       <c r="M5" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1089,16 +1089,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>4</v>
@@ -1113,22 +1113,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10">
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>5</v>
@@ -1145,16 +1145,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>4</v>
@@ -1171,16 +1171,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>4</v>
@@ -1195,22 +1195,22 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>4</v>
@@ -1227,16 +1227,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>4</v>
@@ -1253,16 +1253,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>4</v>
@@ -1279,16 +1279,16 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>4</v>
@@ -1305,16 +1305,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>5</v>
@@ -1331,16 +1331,16 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>5</v>
@@ -1357,16 +1357,16 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>5</v>
